--- a/result.xlsx
+++ b/result.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8682,7 +8682,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12399,7 +12399,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14226,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14541,7 +14541,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15234,7 +15234,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15864,7 +15864,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16368,7 +16368,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16746,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16998,7 +16998,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17187,7 +17187,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17250,7 +17250,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17691,7 +17691,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17754,7 +17754,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17880,7 +17880,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18069,7 +18069,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18384,7 +18384,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18447,7 +18447,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18510,7 +18510,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18573,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18762,7 +18762,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -18951,7 +18951,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19203,7 +19203,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19392,7 +19392,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19581,7 +19581,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19770,7 +19770,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19833,7 +19833,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20022,7 +20022,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20085,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20211,7 +20211,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20337,7 +20337,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20400,7 +20400,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20463,7 +20463,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20526,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20589,7 +20589,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20778,7 +20778,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20904,7 +20904,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -20967,7 +20967,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21282,7 +21282,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21471,7 +21471,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21534,7 +21534,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22290,7 +22290,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22353,7 +22353,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22479,7 +22479,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22542,7 +22542,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22605,7 +22605,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22794,7 +22794,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22983,7 +22983,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23046,7 +23046,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23109,7 +23109,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23298,7 +23298,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23361,7 +23361,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23424,7 +23424,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23487,7 +23487,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23550,7 +23550,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23613,7 +23613,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23739,7 +23739,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23802,7 +23802,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23865,7 +23865,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23928,7 +23928,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -23991,7 +23991,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24054,7 +24054,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24243,7 +24243,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24495,7 +24495,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24747,7 +24747,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24873,7 +24873,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -24999,7 +24999,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25062,7 +25062,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25125,7 +25125,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25251,7 +25251,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25314,7 +25314,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25503,7 +25503,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25629,7 +25629,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25818,7 +25818,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25881,7 +25881,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26007,7 +26007,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26070,7 +26070,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26259,7 +26259,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26322,7 +26322,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26385,7 +26385,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26448,7 +26448,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26511,7 +26511,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26637,7 +26637,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26763,7 +26763,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26826,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26889,7 +26889,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -26952,7 +26952,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27015,7 +27015,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27078,7 +27078,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27267,7 +27267,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27330,7 +27330,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27393,7 +27393,7 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27456,7 +27456,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27582,7 +27582,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27771,7 +27771,7 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27834,7 +27834,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27897,7 +27897,7 @@
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27960,7 +27960,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28023,7 +28023,7 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28086,7 +28086,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28149,7 +28149,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28338,7 +28338,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28464,7 +28464,7 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28527,7 +28527,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28590,7 +28590,7 @@
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28653,7 +28653,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28779,7 +28779,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28842,7 +28842,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28905,7 +28905,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -28968,7 +28968,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29031,7 +29031,7 @@
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29157,7 +29157,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29283,7 +29283,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29346,7 +29346,7 @@
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29409,7 +29409,7 @@
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29472,7 +29472,7 @@
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29535,7 +29535,7 @@
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29598,7 +29598,7 @@
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29661,7 +29661,7 @@
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29787,7 +29787,7 @@
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29850,7 +29850,7 @@
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29913,7 +29913,7 @@
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29976,7 +29976,7 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30039,7 +30039,7 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30165,7 +30165,7 @@
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30291,7 +30291,7 @@
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30354,7 +30354,7 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30417,7 +30417,7 @@
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30606,7 +30606,7 @@
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30669,7 +30669,7 @@
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30795,7 +30795,7 @@
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30858,7 +30858,7 @@
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30921,7 +30921,7 @@
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30984,7 +30984,7 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31047,7 +31047,7 @@
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31110,7 +31110,7 @@
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31173,7 +31173,7 @@
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31299,7 +31299,7 @@
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31362,7 +31362,7 @@
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31425,7 +31425,7 @@
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31488,7 +31488,7 @@
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31551,7 +31551,7 @@
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31614,7 +31614,7 @@
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31677,7 +31677,7 @@
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31803,7 +31803,7 @@
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>OK</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>모델</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
